--- a/見積書.xlsx
+++ b/見積書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aesthetic1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FE2650-0A45-4B06-A05B-1FE348905F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F82535-8C92-47DF-9CF9-646DCDB57F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4785" windowWidth="12210" windowHeight="10815" xr2:uid="{5285E2C6-30EF-4F1B-AFFF-A7DECE6AB6C6}"/>
+    <workbookView xWindow="34050" yWindow="2220" windowWidth="17130" windowHeight="12255" xr2:uid="{5285E2C6-30EF-4F1B-AFFF-A7DECE6AB6C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>御 見 積 書</t>
     <rPh sb="0" eb="1">
@@ -539,6 +539,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>・納品後、2ヶ月間における操作サポートと警備修正を対応致します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>└ 特別調整</t>
+    <rPh sb="2" eb="6">
+      <t>トクベツチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>※</t>
     </r>
@@ -564,21 +575,20 @@
         <scheme val="minor"/>
       </rPr>
       <t>表示保証はChomeの議事環境を利用し、PCのChrome・Firefox・Safariとスマホ端末(iPhone)のみを確認いたします。それ以外の表示に関しましては、別途料金(※要相談)にて拡張いたします。
-・サーバー、ドメインは用意していただきます。</t>
+・サーバー、ドメインはこちらで用意致します。
+ランニングコストは別途ご相談とさせていただきます。</t>
     </r>
-    <rPh sb="119" eb="121">
+    <rPh sb="123" eb="125">
       <t>ヨウイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・納品後、2ヶ月間における操作サポートと警備修正を対応致します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>└ 特別調整</t>
-    <rPh sb="2" eb="6">
-      <t>トクベツチョウセイ</t>
+    <rPh sb="125" eb="126">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ソウダン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1027,197 +1037,197 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1536,49 +1546,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB00E270-25DE-479B-B5AA-ACF3B8667F93}">
   <dimension ref="A1:AL50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="123" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19:V19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30:R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
     </row>
     <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -1615,82 +1625,82 @@
       <c r="AF3" s="1"/>
     </row>
     <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="20" t="s">
+      <c r="U4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="42" t="s">
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="12">
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="46">
         <v>44357</v>
       </c>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
     </row>
     <row r="6" spans="1:32" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
@@ -1797,26 +1807,26 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="11" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1837,26 +1847,26 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="12">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="46">
         <v>44357</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -1877,26 +1887,26 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="11" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1917,26 +1927,26 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="11" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1993,27 +2003,27 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="34" t="str">
-        <f>FIXED(SUM(AC18:AF37)*1.1,-1) &amp;"円（税込）"</f>
-        <v>548,900円（税込）</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="35"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="56" t="str">
+        <f>FIXED(SUM(AC18:AF41)*1.1,-1) &amp;"円（税込）"</f>
+        <v>537,080円（税込）</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="57"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -2032,22 +2042,22 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="37"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="59"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -2100,1408 +2110,1416 @@
       <c r="AF16" s="3"/>
     </row>
     <row r="17" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24" t="s">
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24" t="s">
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24" t="s">
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24" t="s">
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="13" t="s">
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="13" t="s">
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="15"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
     </row>
     <row r="18" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="13">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="27">
         <v>3000</v>
       </c>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="43">
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="29">
         <f>SUM(W19:Y40)</f>
-        <v>161</v>
-      </c>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14"/>
+        <v>335</v>
+      </c>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="30"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="17">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="33">
         <f>$AG$18</f>
         <v>3000</v>
       </c>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="18">
-        <v>8</v>
-      </c>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="19" t="s">
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="34">
+        <v>12</v>
+      </c>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="17">
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="33">
         <f>S19*W19</f>
-        <v>24000</v>
-      </c>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
+        <v>36000</v>
+      </c>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
     </row>
     <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="17">
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="33">
         <f t="shared" ref="S20:S26" si="0">$AG$18</f>
         <v>3000</v>
       </c>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="18">
-        <v>4</v>
-      </c>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="19" t="s">
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="34">
+        <v>8</v>
+      </c>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="17">
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="33">
         <f t="shared" ref="AC20:AC22" si="1">S20*W20</f>
-        <v>12000</v>
-      </c>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
+        <v>24000</v>
+      </c>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
     </row>
     <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="16" t="s">
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="17">
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="33">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="18">
-        <v>8</v>
-      </c>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="19" t="s">
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="34">
+        <v>12</v>
+      </c>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="17">
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="33">
         <f t="shared" si="1"/>
-        <v>24000</v>
-      </c>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
+        <v>36000</v>
+      </c>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
     </row>
     <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="17">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="33">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="18">
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="34">
         <v>0</v>
       </c>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="19" t="s">
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="17">
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
     </row>
     <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="17">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="33">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="18">
-        <v>8</v>
-      </c>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="19" t="s">
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="34">
+        <v>12</v>
+      </c>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="17">
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="33">
         <f t="shared" ref="AC23" si="2">S23*W23</f>
-        <v>24000</v>
-      </c>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
+        <v>36000</v>
+      </c>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
     </row>
     <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="17">
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="33">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="18">
-        <v>4</v>
-      </c>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="19" t="s">
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="34">
+        <v>8</v>
+      </c>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="17">
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="33">
         <f t="shared" ref="AC24:AC32" si="3">S24*W24</f>
-        <v>12000</v>
-      </c>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
+        <v>24000</v>
+      </c>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
     </row>
     <row r="25" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="17">
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="33">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="18">
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="34">
+        <v>10</v>
+      </c>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="33">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+    </row>
+    <row r="26" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="33">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="34">
         <v>6</v>
       </c>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="19" t="s">
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="17">
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="33">
         <f t="shared" si="3"/>
         <v>18000</v>
       </c>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-    </row>
-    <row r="26" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="17">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="18">
-        <v>3</v>
-      </c>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="17">
-        <f t="shared" si="3"/>
-        <v>9000</v>
-      </c>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
     </row>
     <row r="27" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
     </row>
     <row r="28" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="16" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="17">
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="33">
         <f>$AG$18</f>
         <v>3000</v>
       </c>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="18">
-        <v>10</v>
-      </c>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="19" t="s">
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="34">
+        <v>20</v>
+      </c>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="17">
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="33">
         <f t="shared" si="3"/>
-        <v>30000</v>
-      </c>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
+        <v>60000</v>
+      </c>
+      <c r="AD28" s="33"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33"/>
     </row>
     <row r="29" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="16" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="17">
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="33">
         <f t="shared" ref="S29:S32" si="4">$AG$18</f>
         <v>3000</v>
       </c>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="18">
-        <v>8</v>
-      </c>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="19" t="s">
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="34">
+        <v>12</v>
+      </c>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="17">
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="33">
         <f t="shared" si="3"/>
-        <v>24000</v>
-      </c>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
+        <v>36000</v>
+      </c>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="33"/>
     </row>
     <row r="30" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="16" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="17">
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="33">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="18">
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="34">
+        <v>68</v>
+      </c>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="17">
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="33">
         <f t="shared" si="3"/>
-        <v>75000</v>
-      </c>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
+        <v>204000</v>
+      </c>
+      <c r="AD30" s="33"/>
+      <c r="AE30" s="33"/>
+      <c r="AF30" s="33"/>
     </row>
     <row r="31" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="16" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="17">
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="33">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="18">
-        <v>20</v>
-      </c>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="19" t="s">
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="34">
+        <v>44</v>
+      </c>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="17">
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="33">
         <f t="shared" si="3"/>
-        <v>60000</v>
-      </c>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
+        <v>132000</v>
+      </c>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
     </row>
     <row r="32" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="16" t="s">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="17">
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="33">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="18">
-        <v>50</v>
-      </c>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="19" t="s">
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="34">
+        <v>100</v>
+      </c>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="17">
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="33">
         <f t="shared" si="3"/>
-        <v>150000</v>
-      </c>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
+        <v>300000</v>
+      </c>
+      <c r="AD32" s="33"/>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="33"/>
     </row>
     <row r="33" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="63"/>
+      <c r="AA33" s="63"/>
+      <c r="AB33" s="63"/>
+      <c r="AC33" s="61"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="61"/>
+      <c r="AF33" s="61"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="16" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="17">
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="33">
         <f>$AG$18</f>
         <v>3000</v>
       </c>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="18">
-        <v>4</v>
-      </c>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="19" t="s">
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="34">
+        <v>20</v>
+      </c>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="17">
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="33">
         <f t="shared" ref="AC34" si="5">S34*W34</f>
-        <v>12000</v>
-      </c>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
+        <v>60000</v>
+      </c>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="33"/>
+      <c r="AF34" s="33"/>
     </row>
     <row r="35" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="61"/>
+      <c r="AD35" s="61"/>
+      <c r="AE35" s="61"/>
+      <c r="AF35" s="61"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="17">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="33">
         <v>20000</v>
       </c>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="18">
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="34">
         <v>1</v>
       </c>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="19" t="s">
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="17">
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="33">
         <f t="shared" ref="AC36:AC37" si="6">S36*W36</f>
         <v>20000</v>
       </c>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="17"/>
-      <c r="AF36" s="17"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="17">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="33">
         <v>5000</v>
       </c>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="18">
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="34">
         <v>1</v>
       </c>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="19" t="s">
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="17">
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="33">
         <f t="shared" si="6"/>
         <v>5000</v>
       </c>
-      <c r="AD37" s="17"/>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="17"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
     </row>
     <row r="38" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="61"/>
+      <c r="AE38" s="61"/>
+      <c r="AF38" s="61"/>
     </row>
     <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="16" t="s">
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="17">
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="33">
         <f>$AG$18</f>
         <v>3000</v>
       </c>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="18">
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="34">
         <v>0</v>
       </c>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="19" t="s">
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="17">
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="33">
         <f t="shared" ref="AC39:AC40" si="7">S39*W39</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="17"/>
-      <c r="AF39" s="17"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="33"/>
     </row>
     <row r="40" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="17">
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="33">
         <v>20000</v>
       </c>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="18">
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="34">
         <v>1</v>
       </c>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="19" t="s">
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AA40" s="19"/>
-      <c r="AB40" s="19"/>
-      <c r="AC40" s="17">
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="33">
         <f t="shared" si="7"/>
         <v>20000</v>
       </c>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
+      <c r="AD40" s="33"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="33"/>
     </row>
     <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="33">
+        <v>3000</v>
+      </c>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="34">
+        <f>-SUM(W19:Y40)*0.55</f>
+        <v>-184.25000000000003</v>
+      </c>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="33">
+        <f>S41*W41</f>
+        <v>-552750.00000000012</v>
+      </c>
+      <c r="AD41" s="33"/>
+      <c r="AE41" s="33"/>
+      <c r="AF41" s="33"/>
+    </row>
+    <row r="42" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="38"/>
+      <c r="AE42" s="38"/>
+      <c r="AF42" s="38"/>
+    </row>
+    <row r="43" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+    </row>
+    <row r="44" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+      <c r="AA44" s="42"/>
+      <c r="AB44" s="42"/>
+      <c r="AC44" s="42"/>
+      <c r="AD44" s="42"/>
+      <c r="AE44" s="42"/>
+      <c r="AF44" s="42"/>
+    </row>
+    <row r="45" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="17">
-        <v>3000</v>
-      </c>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="17"/>
-      <c r="AD41" s="17"/>
-      <c r="AE41" s="17"/>
-      <c r="AF41" s="17"/>
-    </row>
-    <row r="42" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="47"/>
-      <c r="X42" s="47"/>
-      <c r="Y42" s="47"/>
-      <c r="Z42" s="48"/>
-      <c r="AA42" s="48"/>
-      <c r="AB42" s="48"/>
-      <c r="AC42" s="46"/>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="46"/>
-      <c r="AF42" s="46"/>
-    </row>
-    <row r="43" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="51"/>
-      <c r="T43" s="51"/>
-      <c r="U43" s="51"/>
-      <c r="V43" s="51"/>
-      <c r="W43" s="51"/>
-      <c r="X43" s="51"/>
-      <c r="Y43" s="51"/>
-      <c r="Z43" s="51"/>
-      <c r="AA43" s="51"/>
-      <c r="AB43" s="51"/>
-      <c r="AC43" s="51"/>
-      <c r="AD43" s="51"/>
-      <c r="AE43" s="51"/>
-      <c r="AF43" s="51"/>
-    </row>
-    <row r="44" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="20"/>
-      <c r="Y44" s="20"/>
-      <c r="Z44" s="20"/>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="20"/>
-      <c r="AC44" s="20"/>
-      <c r="AD44" s="20"/>
-      <c r="AE44" s="20"/>
-      <c r="AF44" s="20"/>
-    </row>
-    <row r="45" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="52" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="62"/>
-      <c r="V45" s="62"/>
-      <c r="W45" s="62"/>
-      <c r="X45" s="62"/>
-      <c r="Y45" s="62"/>
-      <c r="Z45" s="62"/>
-      <c r="AA45" s="62"/>
-      <c r="AB45" s="62"/>
-      <c r="AC45" s="62"/>
-      <c r="AD45" s="62"/>
-      <c r="AE45" s="62"/>
-      <c r="AF45" s="63"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="20"/>
     </row>
     <row r="46" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="55"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="64"/>
-      <c r="R46" s="65"/>
-      <c r="S46" s="65"/>
-      <c r="T46" s="65"/>
-      <c r="U46" s="65"/>
-      <c r="V46" s="65"/>
-      <c r="W46" s="65"/>
-      <c r="X46" s="65"/>
-      <c r="Y46" s="65"/>
-      <c r="Z46" s="65"/>
-      <c r="AA46" s="65"/>
-      <c r="AB46" s="65"/>
-      <c r="AC46" s="65"/>
-      <c r="AD46" s="65"/>
-      <c r="AE46" s="65"/>
-      <c r="AF46" s="66"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="23"/>
     </row>
     <row r="47" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="55"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="64"/>
-      <c r="R47" s="65"/>
-      <c r="S47" s="65"/>
-      <c r="T47" s="65"/>
-      <c r="U47" s="65"/>
-      <c r="V47" s="65"/>
-      <c r="W47" s="65"/>
-      <c r="X47" s="65"/>
-      <c r="Y47" s="65"/>
-      <c r="Z47" s="65"/>
-      <c r="AA47" s="65"/>
-      <c r="AB47" s="65"/>
-      <c r="AC47" s="65"/>
-      <c r="AD47" s="65"/>
-      <c r="AE47" s="65"/>
-      <c r="AF47" s="66"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="23"/>
     </row>
     <row r="48" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="55"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="64"/>
-      <c r="R48" s="65"/>
-      <c r="S48" s="65"/>
-      <c r="T48" s="65"/>
-      <c r="U48" s="65"/>
-      <c r="V48" s="65"/>
-      <c r="W48" s="65"/>
-      <c r="X48" s="65"/>
-      <c r="Y48" s="65"/>
-      <c r="Z48" s="65"/>
-      <c r="AA48" s="65"/>
-      <c r="AB48" s="65"/>
-      <c r="AC48" s="65"/>
-      <c r="AD48" s="65"/>
-      <c r="AE48" s="65"/>
-      <c r="AF48" s="66"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="22"/>
+      <c r="AF48" s="23"/>
     </row>
     <row r="49" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="58"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="60"/>
-      <c r="Q49" s="67"/>
-      <c r="R49" s="68"/>
-      <c r="S49" s="68"/>
-      <c r="T49" s="68"/>
-      <c r="U49" s="68"/>
-      <c r="V49" s="68"/>
-      <c r="W49" s="68"/>
-      <c r="X49" s="68"/>
-      <c r="Y49" s="68"/>
-      <c r="Z49" s="68"/>
-      <c r="AA49" s="68"/>
-      <c r="AB49" s="68"/>
-      <c r="AC49" s="68"/>
-      <c r="AD49" s="68"/>
-      <c r="AE49" s="68"/>
-      <c r="AF49" s="69"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="25"/>
+      <c r="AD49" s="25"/>
+      <c r="AE49" s="25"/>
+      <c r="AF49" s="26"/>
     </row>
     <row r="50" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
@@ -3539,62 +3557,103 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="A45:P49"/>
-    <mergeCell ref="Q45:AF49"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="L41:R41"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I1:X2"/>
-    <mergeCell ref="A4:P5"/>
-    <mergeCell ref="Y5:AF5"/>
-    <mergeCell ref="Y4:AF4"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="F14:P15"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="F12:P12"/>
+    <mergeCell ref="F11:P11"/>
+    <mergeCell ref="A44:AF44"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L33:R33"/>
+    <mergeCell ref="L34:R34"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="AG18:AI18"/>
+    <mergeCell ref="AG17:AI17"/>
+    <mergeCell ref="L40:R40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="L32:R32"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="L29:R29"/>
+    <mergeCell ref="L30:R30"/>
+    <mergeCell ref="L31:R31"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB28"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="L23:R23"/>
+    <mergeCell ref="L24:R24"/>
+    <mergeCell ref="L25:R25"/>
+    <mergeCell ref="L26:R26"/>
+    <mergeCell ref="L27:R27"/>
+    <mergeCell ref="L28:R28"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="L20:R20"/>
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="L22:R22"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A30:K30"/>
     <mergeCell ref="AC28:AF28"/>
     <mergeCell ref="AC29:AF29"/>
     <mergeCell ref="AC30:AF30"/>
@@ -3619,109 +3678,68 @@
     <mergeCell ref="S27:V27"/>
     <mergeCell ref="W27:Y27"/>
     <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB28"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="L23:R23"/>
-    <mergeCell ref="L24:R24"/>
-    <mergeCell ref="L25:R25"/>
-    <mergeCell ref="L26:R26"/>
-    <mergeCell ref="L27:R27"/>
-    <mergeCell ref="L28:R28"/>
-    <mergeCell ref="L17:R17"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="L19:R19"/>
-    <mergeCell ref="L20:R20"/>
-    <mergeCell ref="L21:R21"/>
-    <mergeCell ref="L22:R22"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="L29:R29"/>
-    <mergeCell ref="L30:R30"/>
-    <mergeCell ref="L31:R31"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="L32:R32"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="F14:P15"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I1:X2"/>
+    <mergeCell ref="A4:P5"/>
+    <mergeCell ref="Y5:AF5"/>
+    <mergeCell ref="Y4:AF4"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U4:X4"/>
     <mergeCell ref="F10:P10"/>
     <mergeCell ref="F9:P9"/>
-    <mergeCell ref="AG18:AI18"/>
-    <mergeCell ref="AG17:AI17"/>
-    <mergeCell ref="L40:R40"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="L35:R35"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="F12:P12"/>
-    <mergeCell ref="F11:P11"/>
-    <mergeCell ref="A44:AF44"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L33:R33"/>
-    <mergeCell ref="L34:R34"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="A45:P49"/>
+    <mergeCell ref="Q45:AF49"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="L41:R41"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AC19:AF19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/見積書.xlsx
+++ b/見積書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aesthetic1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F82535-8C92-47DF-9CF9-646DCDB57F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976FB203-2AEC-4141-AF2C-4899C27DE47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34050" yWindow="2220" windowWidth="17130" windowHeight="12255" xr2:uid="{5285E2C6-30EF-4F1B-AFFF-A7DECE6AB6C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5285E2C6-30EF-4F1B-AFFF-A7DECE6AB6C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1046,6 +1046,105 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1100,33 +1199,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1142,27 +1217,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="10" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1174,60 +1228,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1546,49 +1546,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB00E270-25DE-479B-B5AA-ACF3B8667F93}">
   <dimension ref="A1:AL50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30:R30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27:Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
     </row>
     <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -1625,82 +1625,82 @@
       <c r="AF3" s="1"/>
     </row>
     <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="42" t="s">
+      <c r="U4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="47" t="s">
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="46">
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="40">
         <v>44357</v>
       </c>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
     </row>
     <row r="6" spans="1:32" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
@@ -1807,26 +1807,26 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="69" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1847,26 +1847,26 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="46">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="40">
         <v>44357</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -1887,26 +1887,26 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="69" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1927,26 +1927,26 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="69" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -2003,27 +2003,27 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="56" t="str">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="32" t="str">
         <f>FIXED(SUM(AC18:AF41)*1.1,-1) &amp;"円（税込）"</f>
-        <v>537,080円（税込）</v>
-      </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
+        <v>499,680円（税込）</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="33"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -2042,22 +2042,22 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="35"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -2110,1172 +2110,1172 @@
       <c r="AF16" s="3"/>
     </row>
     <row r="17" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60" t="s">
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60" t="s">
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="60" t="s">
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="60" t="s">
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="60"/>
-      <c r="AG17" s="27" t="s">
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="27" t="s">
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
     </row>
     <row r="18" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="27">
-        <v>3000</v>
-      </c>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="29">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="69"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="20">
+        <v>2750</v>
+      </c>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="60">
         <f>SUM(W19:Y40)</f>
-        <v>335</v>
-      </c>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="30"/>
+        <v>334</v>
+      </c>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="21"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="33">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="16">
         <f>$AG$18</f>
-        <v>3000</v>
-      </c>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="34">
+        <v>2750</v>
+      </c>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="17">
         <v>12</v>
       </c>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="35" t="s">
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="33">
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="16">
         <f>S19*W19</f>
-        <v>36000</v>
-      </c>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
+        <v>33000</v>
+      </c>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
     </row>
     <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="33">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="16">
         <f t="shared" ref="S20:S26" si="0">$AG$18</f>
-        <v>3000</v>
-      </c>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="34">
+        <v>2750</v>
+      </c>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="17">
         <v>8</v>
       </c>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="35" t="s">
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="33">
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="16">
         <f t="shared" ref="AC20:AC22" si="1">S20*W20</f>
-        <v>24000</v>
-      </c>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
+        <v>22000</v>
+      </c>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
     </row>
     <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="32" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="33">
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="16">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="34">
+        <v>2750</v>
+      </c>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="17">
         <v>12</v>
       </c>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="35" t="s">
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="33">
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="16">
         <f t="shared" si="1"/>
-        <v>36000</v>
-      </c>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
+        <v>33000</v>
+      </c>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
     </row>
     <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="33">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="16">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="34">
+        <v>2750</v>
+      </c>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="17">
         <v>0</v>
       </c>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="35" t="s">
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="33">
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
     </row>
     <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="33">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="16">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="34">
+        <v>2750</v>
+      </c>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="17">
         <v>12</v>
       </c>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="35" t="s">
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="33">
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="16">
         <f t="shared" ref="AC23" si="2">S23*W23</f>
-        <v>36000</v>
-      </c>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
+        <v>33000</v>
+      </c>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
     </row>
     <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="33">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="16">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="34">
+        <v>2750</v>
+      </c>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="17">
         <v>8</v>
       </c>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="35" t="s">
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="33">
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="16">
         <f t="shared" ref="AC24:AC32" si="3">S24*W24</f>
-        <v>24000</v>
-      </c>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
+        <v>22000</v>
+      </c>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
     </row>
     <row r="25" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="33">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="16">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="34">
+        <v>2750</v>
+      </c>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="17">
         <v>10</v>
       </c>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="35" t="s">
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="33">
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="16">
         <f t="shared" si="3"/>
-        <v>30000</v>
-      </c>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
+        <v>27500</v>
+      </c>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
     </row>
     <row r="26" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="33">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="16">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="34">
-        <v>6</v>
-      </c>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="35" t="s">
+        <v>2750</v>
+      </c>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="17">
+        <v>5</v>
+      </c>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="33">
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="16">
         <f t="shared" si="3"/>
-        <v>18000</v>
-      </c>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
+        <v>13750</v>
+      </c>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
     </row>
     <row r="27" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="61"/>
-      <c r="AF27" s="61"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
     </row>
     <row r="28" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="32" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="33">
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="16">
         <f>$AG$18</f>
-        <v>3000</v>
-      </c>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="34">
+        <v>2750</v>
+      </c>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="17">
         <v>20</v>
       </c>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="35" t="s">
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="33">
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="16">
         <f t="shared" si="3"/>
-        <v>60000</v>
-      </c>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
+        <v>55000</v>
+      </c>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16"/>
     </row>
     <row r="29" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="32" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="33">
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="16">
         <f t="shared" ref="S29:S32" si="4">$AG$18</f>
-        <v>3000</v>
-      </c>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="34">
+        <v>2750</v>
+      </c>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="17">
         <v>12</v>
       </c>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="35" t="s">
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="33">
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="16">
         <f t="shared" si="3"/>
-        <v>36000</v>
-      </c>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="33"/>
+        <v>33000</v>
+      </c>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
     </row>
     <row r="30" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="32" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="33">
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="16">
         <f t="shared" si="4"/>
-        <v>3000</v>
-      </c>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="34">
+        <v>2750</v>
+      </c>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="17">
         <v>68</v>
       </c>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="35" t="s">
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="33">
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="16">
         <f t="shared" si="3"/>
-        <v>204000</v>
-      </c>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
+        <v>187000</v>
+      </c>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
     </row>
     <row r="31" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="32" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="33">
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="16">
         <f t="shared" si="4"/>
-        <v>3000</v>
-      </c>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="34">
+        <v>2750</v>
+      </c>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="17">
         <v>44</v>
       </c>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="35" t="s">
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="33">
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="16">
         <f t="shared" si="3"/>
-        <v>132000</v>
-      </c>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="33"/>
+        <v>121000</v>
+      </c>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
     </row>
     <row r="32" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="32" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="33">
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="16">
         <f t="shared" si="4"/>
-        <v>3000</v>
-      </c>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="34">
+        <v>2750</v>
+      </c>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="17">
         <v>100</v>
       </c>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="35" t="s">
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="33">
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="16">
         <f t="shared" si="3"/>
-        <v>300000</v>
-      </c>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
+        <v>275000</v>
+      </c>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="61"/>
-      <c r="T33" s="61"/>
-      <c r="U33" s="61"/>
-      <c r="V33" s="61"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="63"/>
-      <c r="AA33" s="63"/>
-      <c r="AB33" s="63"/>
-      <c r="AC33" s="61"/>
-      <c r="AD33" s="61"/>
-      <c r="AE33" s="61"/>
-      <c r="AF33" s="61"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="32" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="33">
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="16">
         <f>$AG$18</f>
-        <v>3000</v>
-      </c>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="34">
+        <v>2750</v>
+      </c>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="17">
         <v>20</v>
       </c>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="35" t="s">
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="33">
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="16">
         <f t="shared" ref="AC34" si="5">S34*W34</f>
-        <v>60000</v>
-      </c>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
+        <v>55000</v>
+      </c>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
     </row>
     <row r="35" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="61"/>
-      <c r="T35" s="61"/>
-      <c r="U35" s="61"/>
-      <c r="V35" s="61"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="63"/>
-      <c r="AA35" s="63"/>
-      <c r="AB35" s="63"/>
-      <c r="AC35" s="61"/>
-      <c r="AD35" s="61"/>
-      <c r="AE35" s="61"/>
-      <c r="AF35" s="61"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="33">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="16">
         <v>20000</v>
       </c>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="34">
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="17">
         <v>1</v>
       </c>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="35" t="s">
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="33">
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="16">
         <f t="shared" ref="AC36:AC37" si="6">S36*W36</f>
         <v>20000</v>
       </c>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="33">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="16">
         <v>5000</v>
       </c>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="34">
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="17">
         <v>1</v>
       </c>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="35" t="s">
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="33">
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="16">
         <f t="shared" si="6"/>
         <v>5000</v>
       </c>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
     </row>
     <row r="38" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
-      <c r="S38" s="61"/>
-      <c r="T38" s="61"/>
-      <c r="U38" s="61"/>
-      <c r="V38" s="61"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="61"/>
-      <c r="AD38" s="61"/>
-      <c r="AE38" s="61"/>
-      <c r="AF38" s="61"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
     </row>
     <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="32" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="33">
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="16">
         <f>$AG$18</f>
-        <v>3000</v>
-      </c>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="34">
+        <v>2750</v>
+      </c>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="17">
         <v>0</v>
       </c>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="35" t="s">
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="33">
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="16">
         <f t="shared" ref="AC39:AC40" si="7">S39*W39</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="33"/>
-      <c r="AF39" s="33"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
     </row>
     <row r="40" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="33">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="16">
         <v>20000</v>
       </c>
-      <c r="T40" s="33"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="34">
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="17">
         <v>1</v>
       </c>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="35" t="s">
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="33">
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="16">
         <f t="shared" si="7"/>
         <v>20000</v>
       </c>
-      <c r="AD40" s="33"/>
-      <c r="AE40" s="33"/>
-      <c r="AF40" s="33"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
     </row>
     <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="33">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="16">
         <v>3000</v>
       </c>
-      <c r="T41" s="33"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="34">
-        <f>-SUM(W19:Y40)*0.55</f>
-        <v>-184.25000000000003</v>
-      </c>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="35" t="s">
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="17">
+        <f>-SUM(W19:Y40)*0.5</f>
+        <v>-167</v>
+      </c>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="33">
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="16">
         <f>S41*W41</f>
-        <v>-552750.00000000012</v>
-      </c>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="33"/>
+        <v>-501000</v>
+      </c>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
     </row>
     <row r="42" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="40"/>
-      <c r="AC42" s="38"/>
-      <c r="AD42" s="38"/>
-      <c r="AE42" s="38"/>
-      <c r="AF42" s="38"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="63"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="65"/>
+      <c r="AB42" s="65"/>
+      <c r="AC42" s="63"/>
+      <c r="AD42" s="63"/>
+      <c r="AE42" s="63"/>
+      <c r="AF42" s="63"/>
     </row>
     <row r="43" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6"/>
@@ -3312,214 +3312,214 @@
       <c r="AF43" s="8"/>
     </row>
     <row r="44" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
-      <c r="Y44" s="42"/>
-      <c r="Z44" s="42"/>
-      <c r="AA44" s="42"/>
-      <c r="AB44" s="42"/>
-      <c r="AC44" s="42"/>
-      <c r="AD44" s="42"/>
-      <c r="AE44" s="42"/>
-      <c r="AF44" s="42"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="13"/>
     </row>
     <row r="45" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="18" t="s">
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="20"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="52"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="52"/>
+      <c r="AB45" s="52"/>
+      <c r="AC45" s="52"/>
+      <c r="AD45" s="52"/>
+      <c r="AE45" s="52"/>
+      <c r="AF45" s="53"/>
     </row>
     <row r="46" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="22"/>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="22"/>
-      <c r="AA46" s="22"/>
-      <c r="AB46" s="22"/>
-      <c r="AC46" s="22"/>
-      <c r="AD46" s="22"/>
-      <c r="AE46" s="22"/>
-      <c r="AF46" s="23"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="55"/>
+      <c r="Y46" s="55"/>
+      <c r="Z46" s="55"/>
+      <c r="AA46" s="55"/>
+      <c r="AB46" s="55"/>
+      <c r="AC46" s="55"/>
+      <c r="AD46" s="55"/>
+      <c r="AE46" s="55"/>
+      <c r="AF46" s="56"/>
     </row>
     <row r="47" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="23"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55"/>
+      <c r="Z47" s="55"/>
+      <c r="AA47" s="55"/>
+      <c r="AB47" s="55"/>
+      <c r="AC47" s="55"/>
+      <c r="AD47" s="55"/>
+      <c r="AE47" s="55"/>
+      <c r="AF47" s="56"/>
     </row>
     <row r="48" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="22"/>
-      <c r="AC48" s="22"/>
-      <c r="AD48" s="22"/>
-      <c r="AE48" s="22"/>
-      <c r="AF48" s="23"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55"/>
+      <c r="Y48" s="55"/>
+      <c r="Z48" s="55"/>
+      <c r="AA48" s="55"/>
+      <c r="AB48" s="55"/>
+      <c r="AC48" s="55"/>
+      <c r="AD48" s="55"/>
+      <c r="AE48" s="55"/>
+      <c r="AF48" s="56"/>
     </row>
     <row r="49" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="25"/>
-      <c r="AA49" s="25"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="25"/>
-      <c r="AD49" s="25"/>
-      <c r="AE49" s="25"/>
-      <c r="AF49" s="26"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="58"/>
+      <c r="S49" s="58"/>
+      <c r="T49" s="58"/>
+      <c r="U49" s="58"/>
+      <c r="V49" s="58"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="58"/>
+      <c r="Y49" s="58"/>
+      <c r="Z49" s="58"/>
+      <c r="AA49" s="58"/>
+      <c r="AB49" s="58"/>
+      <c r="AC49" s="58"/>
+      <c r="AD49" s="58"/>
+      <c r="AE49" s="58"/>
+      <c r="AF49" s="59"/>
     </row>
     <row r="50" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
@@ -3557,26 +3557,137 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="F12:P12"/>
-    <mergeCell ref="F11:P11"/>
-    <mergeCell ref="A44:AF44"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L33:R33"/>
-    <mergeCell ref="L34:R34"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="A45:P49"/>
+    <mergeCell ref="Q45:AF49"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="L41:R41"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I1:X2"/>
+    <mergeCell ref="A4:P5"/>
+    <mergeCell ref="Y5:AF5"/>
+    <mergeCell ref="Y4:AF4"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="F10:P10"/>
+    <mergeCell ref="F9:P9"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="F14:P15"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AC29:AF29"/>
+    <mergeCell ref="AC30:AF30"/>
+    <mergeCell ref="AC31:AF31"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB28"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="L23:R23"/>
+    <mergeCell ref="L24:R24"/>
+    <mergeCell ref="L25:R25"/>
+    <mergeCell ref="L26:R26"/>
+    <mergeCell ref="L27:R27"/>
+    <mergeCell ref="L28:R28"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="L20:R20"/>
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="L22:R22"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="L32:R32"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="L29:R29"/>
+    <mergeCell ref="L30:R30"/>
+    <mergeCell ref="L31:R31"/>
     <mergeCell ref="AG18:AI18"/>
     <mergeCell ref="AG17:AI17"/>
     <mergeCell ref="L40:R40"/>
@@ -3601,141 +3712,30 @@
     <mergeCell ref="L35:R35"/>
     <mergeCell ref="A38:K38"/>
     <mergeCell ref="L38:R38"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="F12:P12"/>
+    <mergeCell ref="F11:P11"/>
+    <mergeCell ref="A44:AF44"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L33:R33"/>
+    <mergeCell ref="L34:R34"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:Y33"/>
     <mergeCell ref="A35:K35"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="A24:K24"/>
     <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="L32:R32"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="L29:R29"/>
-    <mergeCell ref="L30:R30"/>
-    <mergeCell ref="L31:R31"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB28"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="L23:R23"/>
-    <mergeCell ref="L24:R24"/>
-    <mergeCell ref="L25:R25"/>
-    <mergeCell ref="L26:R26"/>
-    <mergeCell ref="L27:R27"/>
-    <mergeCell ref="L28:R28"/>
-    <mergeCell ref="L17:R17"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="L19:R19"/>
-    <mergeCell ref="L20:R20"/>
-    <mergeCell ref="L21:R21"/>
-    <mergeCell ref="L22:R22"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AC29:AF29"/>
-    <mergeCell ref="AC30:AF30"/>
-    <mergeCell ref="AC31:AF31"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AB26"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="F14:P15"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I1:X2"/>
-    <mergeCell ref="A4:P5"/>
-    <mergeCell ref="Y5:AF5"/>
-    <mergeCell ref="Y4:AF4"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="F10:P10"/>
-    <mergeCell ref="F9:P9"/>
-    <mergeCell ref="A45:P49"/>
-    <mergeCell ref="Q45:AF49"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="L41:R41"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="AC19:AF19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/見積書.xlsx
+++ b/見積書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aesthetic1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976FB203-2AEC-4141-AF2C-4899C27DE47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262B09F8-5294-40F7-9590-69DCA8827E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5285E2C6-30EF-4F1B-AFFF-A7DECE6AB6C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5285E2C6-30EF-4F1B-AFFF-A7DECE6AB6C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>御 見 積 書</t>
     <rPh sb="0" eb="1">
@@ -379,16 +379,6 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リアルタイム更新機能など</t>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -504,13 +494,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レスポンシブ対応5ページ</t>
-    <rPh sb="6" eb="8">
-      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -589,6 +572,41 @@
     </rPh>
     <rPh sb="143" eb="145">
       <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスポンシブ対応2ページ</t>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下層ページ</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セラピスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアルタイム更新、SNS連動機能など</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>レンドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1079,6 +1097,12 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,44 +1112,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1544,13 +1562,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB00E270-25DE-479B-B5AA-ACF3B8667F93}">
-  <dimension ref="A1:AL50"/>
+  <dimension ref="A1:AM50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27:Y27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25:AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="39" max="39" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I1" s="37" t="s">
@@ -1654,7 +1675,7 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z4" s="41"/>
       <c r="AA4" s="41"/>
@@ -1815,7 +1836,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1895,7 +1916,7 @@
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -1935,7 +1956,7 @@
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -2003,27 +2024,27 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="32" t="str">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="31" t="str">
         <f>FIXED(SUM(AC18:AF41)*1.1,-1) &amp;"円（税込）"</f>
-        <v>499,680円（税込）</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="33"/>
+        <v>498,300円（税込）</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="32"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -2042,22 +2063,22 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="34"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -2109,7 +2130,7 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="25" t="s">
         <v>15</v>
       </c>
@@ -2154,31 +2175,31 @@
       <c r="AD17" s="25"/>
       <c r="AE17" s="25"/>
       <c r="AF17" s="25"/>
-      <c r="AG17" s="20" t="s">
+      <c r="AG17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
-      <c r="AJ17" s="20" t="s">
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AK17" s="22"/>
-      <c r="AL17" s="22"/>
-    </row>
-    <row r="18" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="27" t="s">
+      <c r="AK17" s="24"/>
+      <c r="AL17" s="24"/>
+    </row>
+    <row r="18" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
@@ -2200,32 +2221,32 @@
       <c r="AD18" s="69"/>
       <c r="AE18" s="69"/>
       <c r="AF18" s="69"/>
-      <c r="AG18" s="20">
+      <c r="AG18" s="22">
         <v>2750</v>
       </c>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
       <c r="AJ18" s="60">
         <f>SUM(W19:Y40)</f>
-        <v>334</v>
-      </c>
-      <c r="AK18" s="21"/>
-      <c r="AL18" s="21"/>
-    </row>
-    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="AK18" s="23"/>
+      <c r="AL18" s="23"/>
+    </row>
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
@@ -2241,7 +2262,7 @@
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
       <c r="W19" s="17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
@@ -2252,26 +2273,26 @@
       <c r="AB19" s="18"/>
       <c r="AC19" s="16">
         <f>S19*W19</f>
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="AD19" s="16"/>
       <c r="AE19" s="16"/>
       <c r="AF19" s="16"/>
     </row>
-    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -2304,22 +2325,22 @@
       <c r="AE20" s="16"/>
       <c r="AF20" s="16"/>
     </row>
-    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
       <c r="L21" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
@@ -2335,7 +2356,7 @@
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
       <c r="W21" s="17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X21" s="17"/>
       <c r="Y21" s="17"/>
@@ -2346,26 +2367,26 @@
       <c r="AB21" s="18"/>
       <c r="AC21" s="16">
         <f t="shared" si="1"/>
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="AD21" s="16"/>
       <c r="AE21" s="16"/>
       <c r="AF21" s="16"/>
     </row>
-    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
@@ -2398,20 +2419,20 @@
       <c r="AE22" s="16"/>
       <c r="AF22" s="16"/>
     </row>
-    <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
@@ -2427,7 +2448,7 @@
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X23" s="17"/>
       <c r="Y23" s="17"/>
@@ -2438,26 +2459,26 @@
       <c r="AB23" s="18"/>
       <c r="AC23" s="16">
         <f t="shared" ref="AC23" si="2">S23*W23</f>
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="AD23" s="16"/>
       <c r="AE23" s="16"/>
       <c r="AF23" s="16"/>
     </row>
-    <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
@@ -2473,7 +2494,7 @@
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X24" s="17"/>
       <c r="Y24" s="17"/>
@@ -2484,26 +2505,26 @@
       <c r="AB24" s="18"/>
       <c r="AC24" s="16">
         <f t="shared" ref="AC24:AC32" si="3">S24*W24</f>
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="AD24" s="16"/>
       <c r="AE24" s="16"/>
       <c r="AF24" s="16"/>
     </row>
-    <row r="25" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="24" t="s">
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
@@ -2519,7 +2540,7 @@
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
       <c r="W25" s="17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
@@ -2530,26 +2551,26 @@
       <c r="AB25" s="18"/>
       <c r="AC25" s="16">
         <f t="shared" si="3"/>
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="AD25" s="16"/>
       <c r="AE25" s="16"/>
       <c r="AF25" s="16"/>
     </row>
-    <row r="26" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
@@ -2565,7 +2586,7 @@
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
       <c r="W26" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X26" s="17"/>
       <c r="Y26" s="17"/>
@@ -2576,26 +2597,29 @@
       <c r="AB26" s="18"/>
       <c r="AC26" s="16">
         <f t="shared" si="3"/>
-        <v>13750</v>
+        <v>11000</v>
       </c>
       <c r="AD26" s="16"/>
       <c r="AE26" s="16"/>
       <c r="AF26" s="16"/>
-    </row>
-    <row r="27" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="23" t="s">
+      <c r="AM26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
@@ -2617,8 +2641,11 @@
       <c r="AD27" s="9"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
-    </row>
-    <row r="28" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="14" t="s">
         <v>33</v>
       </c>
@@ -2649,7 +2676,7 @@
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
       <c r="W28" s="17">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="X28" s="17"/>
       <c r="Y28" s="17"/>
@@ -2660,13 +2687,16 @@
       <c r="AB28" s="18"/>
       <c r="AC28" s="16">
         <f t="shared" si="3"/>
-        <v>55000</v>
+        <v>88000</v>
       </c>
       <c r="AD28" s="16"/>
       <c r="AE28" s="16"/>
       <c r="AF28" s="16"/>
-    </row>
-    <row r="29" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="14" t="s">
         <v>34</v>
       </c>
@@ -2697,7 +2727,7 @@
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
       <c r="W29" s="17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="X29" s="17"/>
       <c r="Y29" s="17"/>
@@ -2708,13 +2738,13 @@
       <c r="AB29" s="18"/>
       <c r="AC29" s="16">
         <f t="shared" si="3"/>
-        <v>33000</v>
+        <v>44000</v>
       </c>
       <c r="AD29" s="16"/>
       <c r="AE29" s="16"/>
       <c r="AF29" s="16"/>
     </row>
-    <row r="30" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="14" t="s">
         <v>35</v>
       </c>
@@ -2729,7 +2759,7 @@
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
@@ -2745,7 +2775,7 @@
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
       <c r="W30" s="17">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
@@ -2756,13 +2786,13 @@
       <c r="AB30" s="18"/>
       <c r="AC30" s="16">
         <f t="shared" si="3"/>
-        <v>187000</v>
+        <v>110000</v>
       </c>
       <c r="AD30" s="16"/>
       <c r="AE30" s="16"/>
       <c r="AF30" s="16"/>
     </row>
-    <row r="31" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="14" t="s">
         <v>36</v>
       </c>
@@ -2777,7 +2807,7 @@
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
@@ -2793,7 +2823,7 @@
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
       <c r="W31" s="17">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
@@ -2804,13 +2834,13 @@
       <c r="AB31" s="18"/>
       <c r="AC31" s="16">
         <f t="shared" si="3"/>
-        <v>121000</v>
+        <v>66000</v>
       </c>
       <c r="AD31" s="16"/>
       <c r="AE31" s="16"/>
       <c r="AF31" s="16"/>
     </row>
-    <row r="32" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="14" t="s">
         <v>37</v>
       </c>
@@ -2825,7 +2855,7 @@
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="15" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
@@ -2841,7 +2871,7 @@
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
       <c r="W32" s="17">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
@@ -2852,26 +2882,26 @@
       <c r="AB32" s="18"/>
       <c r="AC32" s="16">
         <f t="shared" si="3"/>
-        <v>275000</v>
+        <v>412500</v>
       </c>
       <c r="AD32" s="16"/>
       <c r="AE32" s="16"/>
       <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
@@ -2909,7 +2939,7 @@
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
       <c r="L34" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
@@ -2943,19 +2973,19 @@
       <c r="AF34" s="16"/>
     </row>
     <row r="35" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
+      <c r="A35" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
@@ -2980,7 +3010,7 @@
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -3011,7 +3041,7 @@
       <c r="X36" s="17"/>
       <c r="Y36" s="17"/>
       <c r="Z36" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA36" s="18"/>
       <c r="AB36" s="18"/>
@@ -3025,7 +3055,7 @@
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -3056,7 +3086,7 @@
       <c r="X37" s="17"/>
       <c r="Y37" s="17"/>
       <c r="Z37" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA37" s="18"/>
       <c r="AB37" s="18"/>
@@ -3069,19 +3099,19 @@
       <c r="AF37" s="16"/>
     </row>
     <row r="38" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
+      <c r="A38" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
@@ -3106,7 +3136,7 @@
     </row>
     <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -3119,7 +3149,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
@@ -3154,7 +3184,7 @@
     </row>
     <row r="40" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -3185,7 +3215,7 @@
       <c r="X40" s="17"/>
       <c r="Y40" s="17"/>
       <c r="Z40" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA40" s="18"/>
       <c r="AB40" s="18"/>
@@ -3199,7 +3229,7 @@
     </row>
     <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -3226,7 +3256,7 @@
       <c r="V41" s="16"/>
       <c r="W41" s="17">
         <f>-SUM(W19:Y40)*0.5</f>
-        <v>-167</v>
+        <v>-166.5</v>
       </c>
       <c r="X41" s="17"/>
       <c r="Y41" s="17"/>
@@ -3237,7 +3267,7 @@
       <c r="AB41" s="18"/>
       <c r="AC41" s="16">
         <f>S41*W41</f>
-        <v>-501000</v>
+        <v>-499500</v>
       </c>
       <c r="AD41" s="16"/>
       <c r="AE41" s="16"/>
@@ -3313,7 +3343,7 @@
     </row>
     <row r="44" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -3349,7 +3379,7 @@
     </row>
     <row r="45" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -3367,7 +3397,7 @@
       <c r="O45" s="43"/>
       <c r="P45" s="44"/>
       <c r="Q45" s="51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R45" s="52"/>
       <c r="S45" s="52"/>
@@ -3603,8 +3633,7 @@
     <mergeCell ref="W22:Y22"/>
     <mergeCell ref="Z22:AB22"/>
     <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="A18:K18"/>
     <mergeCell ref="Z27:AB27"/>
     <mergeCell ref="S23:V23"/>
     <mergeCell ref="W23:Y23"/>
@@ -3618,9 +3647,6 @@
     <mergeCell ref="W21:Y21"/>
     <mergeCell ref="Z21:AB21"/>
     <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="A30:K30"/>
     <mergeCell ref="AC28:AF28"/>
     <mergeCell ref="AC29:AF29"/>
     <mergeCell ref="AC30:AF30"/>
@@ -3643,6 +3669,8 @@
     <mergeCell ref="W30:Y30"/>
     <mergeCell ref="Z30:AB30"/>
     <mergeCell ref="S29:V29"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Y27"/>
     <mergeCell ref="W29:Y29"/>
     <mergeCell ref="Z29:AB29"/>
     <mergeCell ref="S28:V28"/>
@@ -3688,6 +3716,8 @@
     <mergeCell ref="L29:R29"/>
     <mergeCell ref="L30:R30"/>
     <mergeCell ref="L31:R31"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A30:K30"/>
     <mergeCell ref="AG18:AI18"/>
     <mergeCell ref="AG17:AI17"/>
     <mergeCell ref="L40:R40"/>
@@ -3739,7 +3769,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/見積書.xlsx
+++ b/見積書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aesthetic1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262B09F8-5294-40F7-9590-69DCA8827E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB545EA-AE17-4482-AF27-82F3EC8CB1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5285E2C6-30EF-4F1B-AFFF-A7DECE6AB6C6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{5285E2C6-30EF-4F1B-AFFF-A7DECE6AB6C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,13 +429,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Webサイトリニューアル構築</t>
-    <rPh sb="12" eb="14">
-      <t>コウチク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>請求書別途発行</t>
     <rPh sb="0" eb="7">
       <t>セイキュウショベットハッコウ</t>
@@ -519,10 +512,6 @@
     <rPh sb="6" eb="10">
       <t>セッテイヒヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・納品後、2ヶ月間における操作サポートと警備修正を対応致します。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -607,6 +596,23 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webサイト新規構築</t>
+    <rPh sb="6" eb="8">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・納品後、2ヶ月間における操作サポートと軽微修正を対応致します。</t>
+    <rPh sb="20" eb="22">
+      <t>ケイビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -975,28 +981,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1027,6 +1011,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1036,7 +1046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1055,14 +1065,152 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="12" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1070,181 +1218,34 @@
     <xf numFmtId="177" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1564,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB00E270-25DE-479B-B5AA-ACF3B8667F93}">
   <dimension ref="A1:AM50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25:AB25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45:AF49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1574,42 +1575,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
     </row>
     <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -1646,82 +1647,82 @@
       <c r="AF3" s="1"/>
     </row>
     <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="41" t="s">
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="40">
-        <v>44357</v>
-      </c>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="41">
+        <v>44362</v>
+      </c>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
     </row>
     <row r="6" spans="1:32" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
@@ -1828,26 +1829,26 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1875,19 +1876,19 @@
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
-      <c r="F10" s="40">
-        <v>44357</v>
-      </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
+      <c r="F10" s="41">
+        <v>44439</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -1915,19 +1916,19 @@
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="F11" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1955,19 +1956,19 @@
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
-      <c r="F12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="F12" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -2024,27 +2025,27 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="31" t="str">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="48" t="str">
         <f>FIXED(SUM(AC18:AF41)*1.1,-1) &amp;"円（税込）"</f>
         <v>498,300円（税込）</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="32"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="49"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -2063,22 +2064,22 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="34"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="51"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -2131,1425 +2132,1425 @@
       <c r="AF16" s="3"/>
     </row>
     <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25" t="s">
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25" t="s">
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25" t="s">
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25" t="s">
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="22" t="s">
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="22" t="s">
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="24"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
     </row>
     <row r="18" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="22">
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="18">
         <v>2750</v>
       </c>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23"/>
-      <c r="AJ18" s="60">
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="20">
         <f>SUM(W19:Y40)</f>
         <v>333</v>
       </c>
-      <c r="AK18" s="23"/>
-      <c r="AL18" s="23"/>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="21"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="16">
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="24">
         <f>$AG$18</f>
         <v>2750</v>
       </c>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="17">
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="25">
         <v>8</v>
       </c>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="18" t="s">
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="16">
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="24">
         <f>S19*W19</f>
         <v>22000</v>
       </c>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
     </row>
     <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="16">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="24">
         <f t="shared" ref="S20:S26" si="0">$AG$18</f>
         <v>2750</v>
       </c>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="17">
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="25">
         <v>8</v>
       </c>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="18" t="s">
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="16">
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="24">
         <f t="shared" ref="AC20:AC22" si="1">S20*W20</f>
         <v>22000</v>
       </c>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
     </row>
     <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="16">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="24">
         <f t="shared" si="0"/>
         <v>2750</v>
       </c>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="17">
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="25">
         <v>8</v>
       </c>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="18" t="s">
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="16">
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="24">
         <f t="shared" si="1"/>
         <v>22000</v>
       </c>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
     </row>
     <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="16">
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="24">
         <f t="shared" si="0"/>
         <v>2750</v>
       </c>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="17">
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="25">
         <v>0</v>
       </c>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="18" t="s">
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="16">
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
     </row>
     <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="16">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="24">
         <f t="shared" si="0"/>
         <v>2750</v>
       </c>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="17">
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="25">
         <v>8</v>
       </c>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="18" t="s">
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="16">
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="24">
         <f t="shared" ref="AC23" si="2">S23*W23</f>
         <v>22000</v>
       </c>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="16"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
     </row>
     <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="16">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="24">
         <f t="shared" si="0"/>
         <v>2750</v>
       </c>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="17">
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="25">
         <v>4</v>
       </c>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="18" t="s">
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="16">
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="24">
         <f t="shared" ref="AC24:AC32" si="3">S24*W24</f>
         <v>11000</v>
       </c>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
     </row>
     <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="16">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="24">
         <f t="shared" si="0"/>
         <v>2750</v>
       </c>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="17">
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="25">
         <v>8</v>
       </c>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="18" t="s">
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="16">
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="24">
         <f t="shared" si="3"/>
         <v>22000</v>
       </c>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
     </row>
     <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="16">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="24">
         <f t="shared" si="0"/>
         <v>2750</v>
       </c>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="17">
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="25">
         <v>4</v>
       </c>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="18" t="s">
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="16">
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="24">
         <f t="shared" si="3"/>
         <v>11000</v>
       </c>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
       <c r="AM26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="55"/>
       <c r="AM27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="15" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="16">
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="24">
         <f>$AG$18</f>
         <v>2750</v>
       </c>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="17">
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="25">
         <v>32</v>
       </c>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="18" t="s">
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="16">
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="24">
         <f t="shared" si="3"/>
         <v>88000</v>
       </c>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
       <c r="AM28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="15" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="16">
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="24">
         <f t="shared" ref="S29:S32" si="4">$AG$18</f>
         <v>2750</v>
       </c>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="17">
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="25">
         <v>16</v>
       </c>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="18" t="s">
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="16">
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="24">
         <f t="shared" si="3"/>
         <v>44000</v>
       </c>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="16"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
     </row>
     <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="16">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="24">
         <f t="shared" si="4"/>
         <v>2750</v>
       </c>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="17">
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="25">
         <v>40</v>
       </c>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="18" t="s">
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="16">
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="24">
         <f t="shared" si="3"/>
         <v>110000</v>
       </c>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
+      <c r="AD30" s="24"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="24"/>
     </row>
     <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="16">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="24">
         <f t="shared" si="4"/>
         <v>2750</v>
       </c>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="17">
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="25">
         <v>24</v>
       </c>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="18" t="s">
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
-      <c r="AC31" s="16">
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="24">
         <f t="shared" si="3"/>
         <v>66000</v>
       </c>
-      <c r="AD31" s="16"/>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
     </row>
     <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="16">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="24">
         <f t="shared" si="4"/>
         <v>2750</v>
       </c>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="17">
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="25">
         <v>150</v>
       </c>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="18" t="s">
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="16">
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="24">
         <f t="shared" si="3"/>
         <v>412500</v>
       </c>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="24"/>
     </row>
     <row r="33" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="55"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="55"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="16">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="24">
         <f>$AG$18</f>
         <v>2750</v>
       </c>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="17">
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="25">
         <v>20</v>
       </c>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="18" t="s">
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="16">
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="24">
         <f t="shared" ref="AC34" si="5">S34*W34</f>
         <v>55000</v>
       </c>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="16"/>
+      <c r="AD34" s="24"/>
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="24"/>
     </row>
     <row r="35" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="55"/>
+      <c r="AD35" s="55"/>
+      <c r="AE35" s="55"/>
+      <c r="AF35" s="55"/>
+    </row>
+    <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-    </row>
-    <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="16">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="24">
         <v>20000</v>
       </c>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="17">
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="25">
         <v>1</v>
       </c>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="18" t="s">
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AA36" s="18"/>
-      <c r="AB36" s="18"/>
-      <c r="AC36" s="16">
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="24">
         <f t="shared" ref="AC36:AC37" si="6">S36*W36</f>
         <v>20000</v>
       </c>
-      <c r="AD36" s="16"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="16"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="24"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="16">
+      <c r="A37" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="24">
         <v>5000</v>
       </c>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="17">
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="25">
         <v>1</v>
       </c>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="18" t="s">
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="16">
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="24">
         <f t="shared" si="6"/>
         <v>5000</v>
       </c>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="24"/>
     </row>
     <row r="38" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="55"/>
+      <c r="AD38" s="55"/>
+      <c r="AE38" s="55"/>
+      <c r="AF38" s="55"/>
     </row>
     <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="15" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="16">
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="24">
         <f>$AG$18</f>
         <v>2750</v>
       </c>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="17">
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="25">
         <v>0</v>
       </c>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="18" t="s">
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="16">
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="24">
         <f t="shared" ref="AC39:AC40" si="7">S39*W39</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="16"/>
-      <c r="AE39" s="16"/>
-      <c r="AF39" s="16"/>
+      <c r="AD39" s="24"/>
+      <c r="AE39" s="24"/>
+      <c r="AF39" s="24"/>
     </row>
     <row r="40" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="16">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="24">
         <v>20000</v>
       </c>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="17">
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="25">
         <v>1</v>
       </c>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="18" t="s">
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="16">
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="24">
         <f t="shared" si="7"/>
         <v>20000</v>
       </c>
-      <c r="AD40" s="16"/>
-      <c r="AE40" s="16"/>
-      <c r="AF40" s="16"/>
+      <c r="AD40" s="24"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="24"/>
     </row>
     <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="16">
+      <c r="A41" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="24">
         <v>3000</v>
       </c>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="17">
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="25">
         <f>-SUM(W19:Y40)*0.5</f>
         <v>-166.5</v>
       </c>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="18" t="s">
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="16">
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="24">
         <f>S41*W41</f>
         <v>-499500</v>
       </c>
-      <c r="AD41" s="16"/>
-      <c r="AE41" s="16"/>
-      <c r="AF41" s="16"/>
+      <c r="AD41" s="24"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="24"/>
     </row>
     <row r="42" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="63"/>
-      <c r="T42" s="63"/>
-      <c r="U42" s="63"/>
-      <c r="V42" s="63"/>
-      <c r="W42" s="64"/>
-      <c r="X42" s="64"/>
-      <c r="Y42" s="64"/>
-      <c r="Z42" s="65"/>
-      <c r="AA42" s="65"/>
-      <c r="AB42" s="65"/>
-      <c r="AC42" s="63"/>
-      <c r="AD42" s="63"/>
-      <c r="AE42" s="63"/>
-      <c r="AF42" s="63"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="31"/>
+      <c r="AB42" s="31"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="29"/>
     </row>
     <row r="43" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="63"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="63"/>
+      <c r="AC43" s="63"/>
+      <c r="AD43" s="63"/>
+      <c r="AE43" s="63"/>
+      <c r="AF43" s="63"/>
     </row>
     <row r="44" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="13"/>
-      <c r="AF44" s="13"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="65"/>
+      <c r="S44" s="65"/>
+      <c r="T44" s="65"/>
+      <c r="U44" s="65"/>
+      <c r="V44" s="65"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="65"/>
+      <c r="Y44" s="65"/>
+      <c r="Z44" s="65"/>
+      <c r="AA44" s="65"/>
+      <c r="AB44" s="65"/>
+      <c r="AC44" s="65"/>
+      <c r="AD44" s="65"/>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="66"/>
     </row>
     <row r="45" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="51" t="s">
+      <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="52"/>
-      <c r="W45" s="52"/>
-      <c r="X45" s="52"/>
-      <c r="Y45" s="52"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="52"/>
-      <c r="AC45" s="52"/>
-      <c r="AD45" s="52"/>
-      <c r="AE45" s="52"/>
-      <c r="AF45" s="53"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="13"/>
+      <c r="AF45" s="14"/>
     </row>
     <row r="46" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="45"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="55"/>
-      <c r="W46" s="55"/>
-      <c r="X46" s="55"/>
-      <c r="Y46" s="55"/>
-      <c r="Z46" s="55"/>
-      <c r="AA46" s="55"/>
-      <c r="AB46" s="55"/>
-      <c r="AC46" s="55"/>
-      <c r="AD46" s="55"/>
-      <c r="AE46" s="55"/>
-      <c r="AF46" s="56"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="13"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="14"/>
     </row>
     <row r="47" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="45"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="55"/>
-      <c r="S47" s="55"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="55"/>
-      <c r="W47" s="55"/>
-      <c r="X47" s="55"/>
-      <c r="Y47" s="55"/>
-      <c r="Z47" s="55"/>
-      <c r="AA47" s="55"/>
-      <c r="AB47" s="55"/>
-      <c r="AC47" s="55"/>
-      <c r="AD47" s="55"/>
-      <c r="AE47" s="55"/>
-      <c r="AF47" s="56"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="13"/>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="13"/>
+      <c r="AF47" s="14"/>
     </row>
     <row r="48" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="45"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="55"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="55"/>
-      <c r="V48" s="55"/>
-      <c r="W48" s="55"/>
-      <c r="X48" s="55"/>
-      <c r="Y48" s="55"/>
-      <c r="Z48" s="55"/>
-      <c r="AA48" s="55"/>
-      <c r="AB48" s="55"/>
-      <c r="AC48" s="55"/>
-      <c r="AD48" s="55"/>
-      <c r="AE48" s="55"/>
-      <c r="AF48" s="56"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="14"/>
     </row>
     <row r="49" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="49"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="58"/>
-      <c r="S49" s="58"/>
-      <c r="T49" s="58"/>
-      <c r="U49" s="58"/>
-      <c r="V49" s="58"/>
-      <c r="W49" s="58"/>
-      <c r="X49" s="58"/>
-      <c r="Y49" s="58"/>
-      <c r="Z49" s="58"/>
-      <c r="AA49" s="58"/>
-      <c r="AB49" s="58"/>
-      <c r="AC49" s="58"/>
-      <c r="AD49" s="58"/>
-      <c r="AE49" s="58"/>
-      <c r="AF49" s="59"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="16"/>
+      <c r="AF49" s="17"/>
     </row>
     <row r="50" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
@@ -3587,6 +3588,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="F12:P12"/>
+    <mergeCell ref="F11:P11"/>
+    <mergeCell ref="A44:AF44"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L33:R33"/>
+    <mergeCell ref="L34:R34"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="AG18:AI18"/>
+    <mergeCell ref="AG17:AI17"/>
+    <mergeCell ref="L40:R40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="L32:R32"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="L29:R29"/>
+    <mergeCell ref="L30:R30"/>
+    <mergeCell ref="L31:R31"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB28"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="L23:R23"/>
+    <mergeCell ref="L24:R24"/>
+    <mergeCell ref="L25:R25"/>
+    <mergeCell ref="L26:R26"/>
+    <mergeCell ref="L27:R27"/>
+    <mergeCell ref="L28:R28"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="L20:R20"/>
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="L22:R22"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AC29:AF29"/>
+    <mergeCell ref="AC30:AF30"/>
+    <mergeCell ref="AC31:AF31"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="F14:P15"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I1:X2"/>
+    <mergeCell ref="A4:P5"/>
+    <mergeCell ref="Y5:AF5"/>
+    <mergeCell ref="Y4:AF4"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="F10:P10"/>
+    <mergeCell ref="F9:P9"/>
     <mergeCell ref="A45:P49"/>
     <mergeCell ref="Q45:AF49"/>
     <mergeCell ref="AJ17:AL17"/>
@@ -3611,161 +3767,6 @@
     <mergeCell ref="W19:Y19"/>
     <mergeCell ref="Z19:AB19"/>
     <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I1:X2"/>
-    <mergeCell ref="A4:P5"/>
-    <mergeCell ref="Y5:AF5"/>
-    <mergeCell ref="Y4:AF4"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="F10:P10"/>
-    <mergeCell ref="F9:P9"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="F14:P15"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AC29:AF29"/>
-    <mergeCell ref="AC30:AF30"/>
-    <mergeCell ref="AC31:AF31"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AB26"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB28"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="L23:R23"/>
-    <mergeCell ref="L24:R24"/>
-    <mergeCell ref="L25:R25"/>
-    <mergeCell ref="L26:R26"/>
-    <mergeCell ref="L27:R27"/>
-    <mergeCell ref="L28:R28"/>
-    <mergeCell ref="L17:R17"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="L19:R19"/>
-    <mergeCell ref="L20:R20"/>
-    <mergeCell ref="L21:R21"/>
-    <mergeCell ref="L22:R22"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="L32:R32"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="L29:R29"/>
-    <mergeCell ref="L30:R30"/>
-    <mergeCell ref="L31:R31"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="AG18:AI18"/>
-    <mergeCell ref="AG17:AI17"/>
-    <mergeCell ref="L40:R40"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="L35:R35"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="F12:P12"/>
-    <mergeCell ref="F11:P11"/>
-    <mergeCell ref="A44:AF44"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L33:R33"/>
-    <mergeCell ref="L34:R34"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
